--- a/reponse.xlsx
+++ b/reponse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredericchhean/DEV/ironhack-bootcamp_fch/Module1_HTML_CSS_JS/GAME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252578D0-FE8D-A248-8F2E-0E08BB11CD6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1367B72D-69CC-204D-8AF2-67E4325F4EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{861C4521-5522-484E-9417-A398C0AE8DF0}"/>
+    <workbookView xWindow="0" yWindow="5560" windowWidth="25600" windowHeight="9680" xr2:uid="{861C4521-5522-484E-9417-A398C0AE8DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200391AA-06CC-2A48-B4E7-C94331464C22}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,42 +672,42 @@
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -715,65 +715,65 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">

--- a/reponse.xlsx
+++ b/reponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredericchhean/DEV/ironhack-bootcamp_fch/Module1_HTML_CSS_JS/GAME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1367B72D-69CC-204D-8AF2-67E4325F4EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD929B19-5C93-1F43-A08C-4E683961A4DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5560" windowWidth="25600" windowHeight="9680" xr2:uid="{861C4521-5522-484E-9417-A398C0AE8DF0}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -555,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200391AA-06CC-2A48-B4E7-C94331464C22}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +610,9 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -629,6 +633,9 @@
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -649,6 +656,9 @@
       <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -669,6 +679,9 @@
       <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -689,6 +702,9 @@
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -709,6 +725,9 @@
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -729,6 +748,9 @@
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
@@ -752,6 +774,9 @@
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,6 +800,9 @@
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -795,6 +823,9 @@
       <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>14</v>
       </c>
@@ -818,6 +849,9 @@
       <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
@@ -841,6 +875,9 @@
       <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
@@ -864,6 +901,9 @@
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -884,6 +924,9 @@
       <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="G15" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -904,8 +947,11 @@
       <c r="F16" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -924,8 +970,11 @@
       <c r="F17" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -943,6 +992,9 @@
       </c>
       <c r="F18" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
